--- a/biology/Botanique/Protium_(plante)/Protium_(plante).xlsx
+++ b/biology/Botanique/Protium_(plante)/Protium_(plante).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Protium est un genre d'arbres de la famille des Burseraceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (15 août 2014)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (15 août 2014) :
 Protium aidanianum
 Protium altissimum
 Protium altsonii
@@ -637,7 +651,7 @@
 Protium warmingianum
 Protium widgrenii
 Protium yunnanense
-Selon GRIN            (15 août 2014)[3] :
+Selon GRIN            (15 août 2014) :
 Protium aracouchini (Aubl.) Marchand
 Protium decandrum (Aubl.) Marchand
 Protium elegans Engl.
@@ -646,7 +660,7 @@
 Protium heptaphyllum (Aubl.) Marchand
 Protium icicariba (DC.) Marchand
 Protium serratum (Wall. ex Colebr.) Engl.
-Selon The Plant List            (15 août 2014)[4] :
+Selon The Plant List            (15 août 2014) :
 Protium altsonii Sandwith
 Protium amazonicum (Cuatrec.) Daly
 Protium amplum Cuatrec.
@@ -751,7 +765,7 @@
 Protium vestitum (Cuatrec.) D.C. Daly
 Protium widgrenii Engl.
 Protium yunnanense (Hu) Kalkman
-Selon Tropicos                                           (15 août 2014)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (15 août 2014) (Attention liste brute contenant possiblement des synonymes) :
 Protium africanum Harv.
 Protium aidanianum Daly
 Protium aidanum D.C. Daly
